--- a/Gyomu/Format/税抜請求書.xlsx
+++ b/Gyomu/Format/税抜請求書.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -486,7 +486,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -542,6 +542,34 @@
     <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,17 +609,8 @@
     <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -911,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -943,18 +962,18 @@
     <row r="2" spans="1:10" ht="21">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="1"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -966,7 +985,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="1"/>
@@ -978,9 +997,9 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -992,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1008,16 +1027,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="42" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="2"/>
@@ -1030,10 +1049,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
@@ -1044,10 +1063,10 @@
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="29"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
@@ -1058,10 +1077,10 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="16"/>
@@ -1076,11 +1095,11 @@
       <c r="E11" s="13"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="3"/>
@@ -1148,12 +1167,12 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1172,411 +1191,411 @@
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="36"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="36"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="36"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="36"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="36"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="36"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="36"/>
+      <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="36"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="36"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="36"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="39"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="39"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="39"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="39"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="22"/>
-      <c r="J31" s="39"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="22"/>
-      <c r="J32" s="39"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="22"/>
-      <c r="J33" s="39"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="22"/>
-      <c r="J34" s="39"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="22"/>
-      <c r="J35" s="39"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="22"/>
-      <c r="J36" s="39"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="22"/>
-      <c r="J37" s="39"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="22"/>
-      <c r="J38" s="39"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="39"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="22"/>
-      <c r="J40" s="39"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="39"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="22"/>
-      <c r="J42" s="39"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="22"/>
-      <c r="J43" s="39"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="22"/>
-      <c r="J44" s="39"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="22"/>
-      <c r="J45" s="39"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="22"/>
-      <c r="J46" s="39"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="39"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="31"/>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="39"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="31"/>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="39"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="31"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="39"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -1627,8 +1646,8 @@
     <mergeCell ref="E9:E10"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>